--- a/ProblemStatus.xlsx
+++ b/ProblemStatus.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/629362c433a9af1d/Desktop/problems/leetcode-problems/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC10484D8958473A5BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E2E8E1C-BF36-4498-AF32-7EE66A90CD45}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,112 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>S.NO</t>
+  </si>
+  <si>
+    <t>PROBLEMS</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Find the index of the Element in an Array</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Adding the Two Arrays and get a single value</t>
+  </si>
+  <si>
+    <t>Captialize a camelCase String</t>
+  </si>
+  <si>
+    <t>Not Completed</t>
+  </si>
+  <si>
+    <t>Find the Duplicate element in an Array</t>
+  </si>
+  <si>
+    <t>Index and Status of the Leetcode Problems</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLUE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (IMPORTANT) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ORANGE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (NOT COMPLETED) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (COMPLETED)</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +137,89 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,12 +227,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +588,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.81640625" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="0.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="6" width="81.36328125" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="5:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E8" s="7">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E10" s="2"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E11" s="2"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E12" s="2"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E13" s="2"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E14" s="2"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E15" s="2"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E16" s="2"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="5:7" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="E17" s="2"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>